--- a/flows/FXC_fund_flow_data.xlsx
+++ b/flows/FXC_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4446"/>
+  <dimension ref="A1:B4467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44895,6 +44895,216 @@
         <v>-3.6082242</v>
       </c>
     </row>
+    <row r="4447">
+      <c r="A4447" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B4447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B4448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B4449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4467" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
